--- a/Multi-taxa_data/PLITs/extraction/PLIT_G2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C045FD24-FD4C-49F0-9B6D-5CF0342F009E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB75BFA-4CEC-4448-8328-96B005C22D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -5712,11 +5712,11 @@
   </sheetPr>
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J258" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C276"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="C162" s="6">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>22</v>
@@ -8666,14 +8666,14 @@
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>1437</v>
+        <v>1447</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C163" s="6">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>35</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="C222" s="6">
         <f t="shared" si="3"/>
-        <v>-1784</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1"/>
       <c r="K222" s="1" t="s">
@@ -9702,14 +9702,14 @@
     </row>
     <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>203</v>
+        <v>2003</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C223" s="6">
         <f t="shared" si="3"/>
-        <v>1802</v>
+        <v>2</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>22</v>
@@ -19923,7 +19923,7 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB75BFA-4CEC-4448-8328-96B005C22D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957AAA1-A6B9-4531-B06D-798039A4691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="513">
   <si>
     <t>D1</t>
   </si>
@@ -584,9 +584,6 @@
   </si>
   <si>
     <t>GOPR1341</t>
-  </si>
-  <si>
-    <t>cca</t>
   </si>
   <si>
     <t>GOPR1341-2</t>
@@ -5712,7 +5709,7 @@
   </sheetPr>
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -8247,7 +8244,7 @@
       </c>
       <c r="D139" s="1"/>
       <c r="K139" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8265,7 +8262,7 @@
         <v>22</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8281,7 +8278,7 @@
       </c>
       <c r="D141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8299,7 +8296,7 @@
         <v>30</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8315,7 +8312,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="K143" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8333,7 +8330,7 @@
         <v>30</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L144" t="s">
         <v>32</v>
@@ -8352,7 +8349,7 @@
       </c>
       <c r="D145" s="1"/>
       <c r="K145" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L145" t="s">
         <v>32</v>
@@ -8374,7 +8371,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L146" t="s">
         <v>32</v>
@@ -8393,7 +8390,7 @@
       </c>
       <c r="D147" s="1"/>
       <c r="K147" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8411,7 +8408,7 @@
         <v>30</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8429,7 +8426,7 @@
         <v>19</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8447,7 +8444,7 @@
         <v>30</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8465,7 +8462,7 @@
         <v>22</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8481,7 +8478,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="K152" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8499,7 +8496,7 @@
         <v>22</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8517,7 +8514,7 @@
         <v>30</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8535,7 +8532,7 @@
         <v>88</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8553,7 +8550,7 @@
         <v>22</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8571,7 +8568,7 @@
         <v>19</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8589,7 +8586,7 @@
         <v>88</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8607,7 +8604,7 @@
         <v>19</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8625,7 +8622,7 @@
         <v>30</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8643,7 +8640,7 @@
         <v>19</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8661,7 +8658,7 @@
         <v>22</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8679,7 +8676,7 @@
         <v>35</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -8696,7 +8693,7 @@
       </c>
       <c r="D164" s="1"/>
       <c r="K164" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8714,7 +8711,7 @@
         <v>88</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8732,7 +8729,7 @@
         <v>22</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8750,7 +8747,7 @@
         <v>30</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8768,7 +8765,7 @@
         <v>22</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8784,7 +8781,7 @@
       </c>
       <c r="D169" s="1"/>
       <c r="K169" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8802,7 +8799,7 @@
         <v>22</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8818,7 +8815,7 @@
       </c>
       <c r="D171" s="1"/>
       <c r="K171" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8836,7 +8833,7 @@
         <v>22</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8854,7 +8851,7 @@
         <v>30</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8870,7 +8867,7 @@
       </c>
       <c r="D174" s="1"/>
       <c r="K174" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8886,7 +8883,7 @@
       </c>
       <c r="D175" s="1"/>
       <c r="K175" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8904,7 +8901,7 @@
         <v>30</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8920,7 +8917,7 @@
       </c>
       <c r="D177" s="1"/>
       <c r="K177" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8938,7 +8935,7 @@
         <v>30</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8954,7 +8951,7 @@
       </c>
       <c r="D179" s="1"/>
       <c r="K179" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8972,7 +8969,7 @@
         <v>30</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8988,7 +8985,7 @@
       </c>
       <c r="D181" s="1"/>
       <c r="K181" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9006,7 +9003,7 @@
         <v>19</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9024,7 +9021,7 @@
         <v>35</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9040,7 +9037,7 @@
       </c>
       <c r="D184" s="1"/>
       <c r="K184" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9058,7 +9055,7 @@
         <v>30</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9076,7 +9073,7 @@
         <v>22</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9092,7 +9089,7 @@
       </c>
       <c r="D187" s="1"/>
       <c r="K187" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9110,7 +9107,7 @@
         <v>22</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9126,7 +9123,7 @@
       </c>
       <c r="D189" s="1"/>
       <c r="K189" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9144,7 +9141,7 @@
         <v>22</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9160,7 +9157,7 @@
       </c>
       <c r="D191" s="1"/>
       <c r="K191" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9178,7 +9175,7 @@
         <v>30</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9196,7 +9193,7 @@
         <v>22</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9212,7 +9209,7 @@
       </c>
       <c r="D194" s="1"/>
       <c r="K194" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9230,7 +9227,7 @@
         <v>22</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9248,7 +9245,7 @@
         <v>30</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9266,7 +9263,7 @@
         <v>22</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9282,7 +9279,7 @@
       </c>
       <c r="D198" s="1"/>
       <c r="K198" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9300,7 +9297,7 @@
         <v>22</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9318,7 +9315,7 @@
         <v>86</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9334,7 +9331,7 @@
       </c>
       <c r="D201" s="1"/>
       <c r="K201" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9352,7 +9349,7 @@
         <v>22</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9368,7 +9365,7 @@
       </c>
       <c r="D203" s="1"/>
       <c r="K203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9386,7 +9383,7 @@
         <v>22</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9404,7 +9401,7 @@
         <v>19</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9420,7 +9417,7 @@
       </c>
       <c r="D206" s="1"/>
       <c r="K206" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9438,7 +9435,7 @@
         <v>19</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9456,7 +9453,7 @@
         <v>22</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9472,7 +9469,7 @@
       </c>
       <c r="D209" s="1"/>
       <c r="K209" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9490,7 +9487,7 @@
         <v>30</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9508,7 +9505,7 @@
         <v>22</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9524,7 +9521,7 @@
       </c>
       <c r="D212" s="1"/>
       <c r="K212" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9542,7 +9539,7 @@
         <v>30</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9560,7 +9557,7 @@
         <v>19</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9576,7 +9573,7 @@
       </c>
       <c r="D215" s="1"/>
       <c r="K215" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9592,7 +9589,7 @@
       </c>
       <c r="D216" s="1"/>
       <c r="K216" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9610,7 +9607,7 @@
         <v>22</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9628,7 +9625,7 @@
         <v>19</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9646,7 +9643,7 @@
         <v>22</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L219" s="6"/>
     </row>
@@ -9663,7 +9660,7 @@
       </c>
       <c r="D220" s="1"/>
       <c r="K220" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9681,7 +9678,7 @@
         <v>30</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9697,7 +9694,7 @@
       </c>
       <c r="D222" s="1"/>
       <c r="K222" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9715,7 +9712,7 @@
         <v>22</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9733,7 +9730,7 @@
         <v>19</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9751,7 +9748,7 @@
         <v>30</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9767,7 +9764,7 @@
       </c>
       <c r="D226" s="6"/>
       <c r="K226" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9785,7 +9782,7 @@
         <v>22</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9801,7 +9798,7 @@
       </c>
       <c r="D228" s="6"/>
       <c r="K228" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9817,7 +9814,7 @@
       </c>
       <c r="D229" s="6"/>
       <c r="K229" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9835,7 +9832,7 @@
         <v>30</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9851,7 +9848,7 @@
       </c>
       <c r="D231" s="6"/>
       <c r="K231" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9869,7 +9866,7 @@
         <v>30</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9885,7 +9882,7 @@
       </c>
       <c r="D233" s="6"/>
       <c r="K233" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9903,7 +9900,7 @@
         <v>30</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9918,7 +9915,7 @@
         <v>15</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9936,7 +9933,7 @@
         <v>22</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9954,7 +9951,7 @@
         <v>30</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9972,7 +9969,7 @@
         <v>19</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9990,7 +9987,7 @@
         <v>30</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10005,7 +10002,7 @@
         <v>15</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10023,7 +10020,7 @@
         <v>30</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10041,7 +10038,7 @@
         <v>30</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10056,7 +10053,7 @@
         <v>6</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10074,7 +10071,7 @@
         <v>30</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10092,7 +10089,7 @@
         <v>19</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10107,7 +10104,7 @@
         <v>5</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10125,7 +10122,7 @@
         <v>30</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10143,7 +10140,7 @@
         <v>19</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10161,7 +10158,7 @@
         <v>19</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10179,7 +10176,7 @@
         <v>30</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10194,7 +10191,7 @@
         <v>17</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10212,7 +10209,7 @@
         <v>22</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10230,7 +10227,7 @@
         <v>19</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10248,7 +10245,7 @@
         <v>30</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10266,7 +10263,7 @@
         <v>22</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10284,7 +10281,7 @@
         <v>30</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10299,7 +10296,7 @@
         <v>5</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10317,7 +10314,7 @@
         <v>30</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10335,7 +10332,7 @@
         <v>20</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10353,7 +10350,7 @@
         <v>30</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10371,7 +10368,7 @@
         <v>22</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10389,7 +10386,7 @@
         <v>30</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10404,7 +10401,7 @@
         <v>7</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10422,7 +10419,7 @@
         <v>30</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10440,7 +10437,7 @@
         <v>19</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10458,7 +10455,7 @@
         <v>35</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10473,7 +10470,7 @@
         <v>9</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10491,7 +10488,7 @@
         <v>30</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10509,7 +10506,7 @@
         <v>22</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10527,7 +10524,7 @@
         <v>30</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10542,7 +10539,7 @@
         <v>2</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10560,7 +10557,7 @@
         <v>30</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10578,7 +10575,7 @@
         <v>20</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10596,7 +10593,7 @@
         <v>30</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10614,7 +10611,7 @@
         <v>19</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10632,7 +10629,7 @@
         <v>88</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10654,13 +10651,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U282"/>
+  <dimension ref="A1:U281"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B214" sqref="B214"/>
+      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10790,7 +10787,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -10812,7 +10809,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -10832,7 +10829,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -10849,7 +10846,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -10873,7 +10870,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -10896,7 +10893,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="12"/>
       <c r="K10" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -10907,17 +10904,17 @@
         <v>186</v>
       </c>
       <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -10935,7 +10932,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="K12" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -10945,7 +10942,7 @@
         <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10955,7 +10952,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -10976,7 +10973,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -10987,7 +10984,7 @@
         <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10997,7 +10994,7 @@
         <v>30</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -11016,7 +11013,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="12"/>
       <c r="K16" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11032,7 +11029,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="K17" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11040,7 +11037,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -11051,7 +11048,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -11068,7 +11065,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="K19" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -11085,7 +11082,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="K20" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11103,7 +11100,7 @@
         <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11120,7 +11117,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="K22" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11137,7 +11134,7 @@
       <c r="D23" s="1"/>
       <c r="F23" s="6"/>
       <c r="K23" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11145,7 +11142,7 @@
         <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -11155,7 +11152,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -11164,7 +11161,7 @@
         <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -11174,7 +11171,7 @@
         <v>22</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -11183,7 +11180,7 @@
         <v>385</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -11193,7 +11190,7 @@
         <v>30</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -11210,7 +11207,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="K27" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -11219,7 +11216,7 @@
         <v>421</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -11229,7 +11226,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11245,7 +11242,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="K29" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11253,7 +11250,7 @@
         <v>435</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -11263,7 +11260,7 @@
         <v>30</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11281,7 +11278,7 @@
         <v>19</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11289,7 +11286,7 @@
         <v>493</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -11299,7 +11296,7 @@
         <v>87</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11315,7 +11312,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="K33" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11331,7 +11328,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="K34" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11347,7 +11344,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="K35" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11363,7 +11360,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="K36" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11379,7 +11376,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="K37" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11395,7 +11392,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="K38" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11403,7 +11400,7 @@
         <v>545</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -11413,7 +11410,7 @@
         <v>30</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11429,7 +11426,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="K40" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11445,7 +11442,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="K41" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11463,7 +11460,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -11480,7 +11477,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="K43" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11496,7 +11493,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="K44" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11504,7 +11501,7 @@
         <v>715</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -11515,7 +11512,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11531,7 +11528,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="K46" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -11548,7 +11545,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="K47" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11556,7 +11553,7 @@
         <v>771</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -11566,7 +11563,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11581,10 +11578,10 @@
         <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11592,7 +11589,7 @@
         <v>792</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -11602,7 +11599,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11610,7 +11607,7 @@
         <v>847</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -11620,7 +11617,7 @@
         <v>35</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11638,7 +11635,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11646,7 +11643,7 @@
         <v>882</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -11656,7 +11653,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11672,7 +11669,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="K54" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11688,7 +11685,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="K55" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11696,7 +11693,7 @@
         <v>892</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -11706,7 +11703,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11721,10 +11718,10 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11732,7 +11729,7 @@
         <v>898</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -11742,7 +11739,7 @@
         <v>22</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11758,7 +11755,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="K59" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11774,7 +11771,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="K60" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11782,7 +11779,7 @@
         <v>952</v>
       </c>
       <c r="B61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -11792,7 +11789,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11800,7 +11797,7 @@
         <v>955</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -11810,7 +11807,7 @@
         <v>22</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -11827,7 +11824,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="K63" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11846,7 +11843,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11863,7 +11860,7 @@
       <c r="D65" s="1"/>
       <c r="F65" s="12"/>
       <c r="K65" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -11880,7 +11877,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="K66" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11888,7 +11885,7 @@
         <v>997</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
@@ -11898,7 +11895,7 @@
         <v>30</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11914,7 +11911,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="K68" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11922,7 +11919,7 @@
         <v>1013</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
@@ -11933,7 +11930,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11941,7 +11938,7 @@
         <v>1022</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C133" si="1">A71-A70</f>
@@ -11951,7 +11948,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11967,7 +11964,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="K71" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11983,7 +11980,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="K72" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11991,7 +11988,7 @@
         <v>1070</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
@@ -12001,7 +11998,7 @@
         <v>30</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -12018,7 +12015,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="K74" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12026,7 +12023,7 @@
         <v>1089</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
@@ -12036,7 +12033,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12052,7 +12049,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="K76" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12070,7 +12067,7 @@
         <v>20</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -12087,7 +12084,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="K78" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -12106,7 +12103,7 @@
         <v>19</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12122,7 +12119,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="K80" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12138,7 +12135,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="K81" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12154,7 +12151,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="K82" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12170,7 +12167,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="K83" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12186,7 +12183,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="K84" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12194,7 +12191,7 @@
         <v>1261</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
@@ -12204,7 +12201,7 @@
         <v>30</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12222,7 +12219,7 @@
         <v>19</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12230,7 +12227,7 @@
         <v>1272</v>
       </c>
       <c r="B87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
@@ -12240,7 +12237,7 @@
         <v>22</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12248,7 +12245,7 @@
         <v>1274</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
@@ -12258,7 +12255,7 @@
         <v>30</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12274,7 +12271,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="K89" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12290,7 +12287,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="K90" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12306,7 +12303,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="K91" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12314,7 +12311,7 @@
         <v>1331</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
@@ -12324,7 +12321,7 @@
         <v>30</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12340,7 +12337,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="K93" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12348,7 +12345,7 @@
         <v>1340</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -12358,7 +12355,7 @@
         <v>30</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12374,7 +12371,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="K95" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12392,7 +12389,7 @@
         <v>19</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12400,7 +12397,7 @@
         <v>1364</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
@@ -12410,7 +12407,7 @@
         <v>30</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12428,7 +12425,7 @@
         <v>19</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12436,7 +12433,7 @@
         <v>1440</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
@@ -12446,7 +12443,7 @@
         <v>30</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12462,7 +12459,7 @@
       </c>
       <c r="D100" s="1"/>
       <c r="K100" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12470,7 +12467,7 @@
         <v>1468</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
@@ -12480,7 +12477,7 @@
         <v>22</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12496,7 +12493,7 @@
       </c>
       <c r="D102" s="1"/>
       <c r="K102" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12514,7 +12511,7 @@
         <v>19</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12530,7 +12527,7 @@
       </c>
       <c r="D104" s="1"/>
       <c r="K104" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12546,7 +12543,7 @@
       </c>
       <c r="D105" s="1"/>
       <c r="K105" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12564,7 +12561,7 @@
         <v>19</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12572,7 +12569,7 @@
         <v>1498</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
@@ -12582,7 +12579,7 @@
         <v>30</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12598,7 +12595,7 @@
       </c>
       <c r="D108" s="1"/>
       <c r="K108" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12606,7 +12603,7 @@
         <v>1514</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
@@ -12616,7 +12613,7 @@
         <v>30</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -12633,7 +12630,7 @@
       </c>
       <c r="D110" s="1"/>
       <c r="K110" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12641,7 +12638,7 @@
         <v>1531</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
@@ -12651,7 +12648,7 @@
         <v>30</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12667,7 +12664,7 @@
       </c>
       <c r="D112" s="1"/>
       <c r="K112" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12683,7 +12680,7 @@
       </c>
       <c r="D113" s="1"/>
       <c r="K113" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12691,7 +12688,7 @@
         <v>1577</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
@@ -12701,7 +12698,7 @@
         <v>30</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12709,7 +12706,7 @@
         <v>1585</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
@@ -12720,7 +12717,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12728,7 +12725,7 @@
         <v>1587</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
@@ -12738,7 +12735,7 @@
         <v>30</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12754,7 +12751,7 @@
       </c>
       <c r="D117" s="1"/>
       <c r="K117" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -12763,7 +12760,7 @@
         <v>1666</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
@@ -12773,7 +12770,7 @@
         <v>30</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12789,7 +12786,7 @@
       </c>
       <c r="D119" s="1"/>
       <c r="K119" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12807,7 +12804,7 @@
         <v>88</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12815,7 +12812,7 @@
         <v>1692</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
@@ -12825,7 +12822,7 @@
         <v>30</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12843,7 +12840,7 @@
         <v>88</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12851,7 +12848,7 @@
         <v>1721</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -12861,7 +12858,7 @@
         <v>30</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12879,7 +12876,7 @@
         <v>88</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -12888,7 +12885,7 @@
         <v>1726</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -12898,7 +12895,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12906,7 +12903,7 @@
         <v>1732</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
@@ -12916,7 +12913,7 @@
         <v>22</v>
       </c>
       <c r="K126" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12934,7 +12931,7 @@
         <v>19</v>
       </c>
       <c r="K127" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12950,7 +12947,7 @@
       </c>
       <c r="D128" s="1"/>
       <c r="K128" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12968,7 +12965,7 @@
         <v>19</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12976,7 +12973,7 @@
         <v>1760</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
@@ -12986,7 +12983,7 @@
         <v>30</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13002,7 +12999,7 @@
       </c>
       <c r="D131" s="1"/>
       <c r="K131" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13010,7 +13007,7 @@
         <v>1772</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C132">
         <f t="shared" si="1"/>
@@ -13020,7 +13017,7 @@
         <v>30</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13038,7 +13035,7 @@
         <v>19</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13046,7 +13043,7 @@
         <v>1776</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C134">
         <f t="shared" ref="C134:C197" si="2">A135-A134</f>
@@ -13056,7 +13053,7 @@
         <v>22</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13072,7 +13069,7 @@
       </c>
       <c r="D135" s="15"/>
       <c r="K135" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13080,7 +13077,7 @@
         <v>1784</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -13090,7 +13087,7 @@
         <v>22</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13098,7 +13095,7 @@
         <v>1791</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
@@ -13108,7 +13105,7 @@
         <v>30</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13116,7 +13113,7 @@
         <v>1810</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
@@ -13126,7 +13123,7 @@
         <v>22</v>
       </c>
       <c r="K138" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13142,7 +13139,7 @@
       </c>
       <c r="D139" s="15"/>
       <c r="K139" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13150,7 +13147,7 @@
         <v>1820</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
@@ -13160,7 +13157,7 @@
         <v>22</v>
       </c>
       <c r="K140" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13178,7 +13175,7 @@
         <v>19</v>
       </c>
       <c r="K141" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13186,182 +13183,180 @@
         <v>1854</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K142" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D143" s="15"/>
       <c r="K143" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D144" s="15"/>
       <c r="K144" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1862</v>
+        <v>1873</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D145" s="15"/>
+      <c r="F145" s="12"/>
       <c r="K145" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1873</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>138</v>
+        <v>1878</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D146" s="15"/>
-      <c r="F146" s="12"/>
       <c r="K146" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1878</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>11</v>
+        <v>1880</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D147" s="15"/>
       <c r="K147" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1880</v>
+        <v>1889</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="D148" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K148" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1894</v>
+        <v>1898</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D151" s="15"/>
       <c r="K151" s="16" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1902</v>
+        <v>1922</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D152" s="15"/>
       <c r="K152" s="16" t="s">
@@ -13370,251 +13365,251 @@
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D153" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K153" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1926</v>
+        <v>1937</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K154" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D155" s="15"/>
       <c r="K155" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1941</v>
+        <v>1950</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="D156" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K156" s="16" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1950</v>
+        <v>1981</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D157" s="15"/>
       <c r="K157" s="16" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1981</v>
+        <v>2072</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="D158" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K158" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D159" s="15"/>
       <c r="K159" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2074</v>
+        <v>2081</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D160" s="15"/>
       <c r="K160" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" s="15"/>
       <c r="K161" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D162" s="15"/>
       <c r="K162" s="16" t="s">
-        <v>303</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="L162" s="6"/>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2086</v>
+        <v>2092</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D163" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K163" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="L163" s="6"/>
+        <v>302</v>
+      </c>
     </row>
     <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D164" s="15"/>
       <c r="K164" s="16" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2095</v>
+        <v>2117</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="D165" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K165" s="16" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2117</v>
+        <v>2150</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D166" s="15"/>
       <c r="K166" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D167" s="15"/>
       <c r="K167" s="16" t="s">
@@ -13623,202 +13618,202 @@
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2153</v>
+        <v>2173</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D168" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K168" s="16" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2173</v>
+        <v>2178</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D169" s="15"/>
       <c r="K169" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D170" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K170" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>2180</v>
+        <v>2188</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D171" s="1"/>
       <c r="K171" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D172" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K172" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2191</v>
+        <v>2199</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D173" s="1"/>
       <c r="K173" s="16" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>2199</v>
+        <v>2223</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D174" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K174" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D175" s="1"/>
       <c r="K175" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>2225</v>
+        <v>2242</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="D176" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K176" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K177" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>2245</v>
+        <v>2258</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
-        <v>-17</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D178" s="1"/>
       <c r="K178" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>2228</v>
+        <v>2260</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D179" s="1"/>
       <c r="K179" s="16" t="s">
@@ -13827,82 +13822,82 @@
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>2260</v>
+        <v>2268</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D180" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K180" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D181" s="1"/>
       <c r="K181" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>2272</v>
+        <v>2279</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D182" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K182" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D183" s="1"/>
       <c r="K183" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>2281</v>
+        <v>2286</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D184" s="1"/>
       <c r="K184" s="16" t="s">
@@ -13911,185 +13906,187 @@
     </row>
     <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>2286</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>2326</v>
+      </c>
+      <c r="B185" s="1"/>
       <c r="C185">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="D185" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K185" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>2326</v>
-      </c>
-      <c r="B186" s="1"/>
+        <v>2330</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C186">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D186" s="1"/>
       <c r="K186" s="16" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>2330</v>
+        <v>2381</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="D187" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="K187" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>2381</v>
+        <v>2394</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>2394</v>
+        <v>2403</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D189" s="1"/>
       <c r="K189" s="16" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>2403</v>
+        <v>2435</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="D190" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D190" s="6"/>
       <c r="K190" s="16" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>2435</v>
+        <v>2452</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="D191" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K191" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>2452</v>
+        <v>2484</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D192" s="1"/>
       <c r="K192" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>2484</v>
+        <v>2490</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D193" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K193" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>2490</v>
+        <v>2498</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C194">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K194" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C195">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K195" s="16" t="s">
         <v>317</v>
@@ -14097,17 +14094,17 @@
     </row>
     <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>2501</v>
+        <v>2524</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C196">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K196" s="16" t="s">
         <v>318</v>
@@ -14115,100 +14112,98 @@
     </row>
     <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C197">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>2531</v>
+        <v>2538</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C213" si="3">A199-A198</f>
-        <v>7</v>
+        <f t="shared" ref="C198:C212" si="3">A199-A198</f>
+        <v>2</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D199" s="1"/>
       <c r="K199" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>2540</v>
+        <v>2544</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D200" s="1"/>
       <c r="K200" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>2544</v>
+        <v>2553</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1"/>
       <c r="K201" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D202" s="1"/>
       <c r="K202" s="16" t="s">
@@ -14217,33 +14212,35 @@
     </row>
     <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>2556</v>
+        <v>2577</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="D203" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K203" s="16" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>2577</v>
+        <v>2597</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>237</v>
+        <v>8</v>
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K204" s="16" t="s">
         <v>321</v>
@@ -14251,17 +14248,17 @@
     </row>
     <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2597</v>
+        <v>2618</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K205" s="16" t="s">
         <v>322</v>
@@ -14269,121 +14266,121 @@
     </row>
     <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D206" s="1"/>
       <c r="K206" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D207" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="K207" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>2625</v>
+        <v>2630</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D209" s="1"/>
       <c r="K209" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>2633</v>
+        <v>2648</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="D210" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K210" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K211" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>2651</v>
+        <v>2660</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K212" s="16" t="s">
         <v>323</v>
@@ -14391,30 +14388,19 @@
     </row>
     <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>2660</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K213" s="16" t="s">
-        <v>324</v>
-      </c>
+        <v>2685</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="1"/>
+      <c r="K213" s="16"/>
     </row>
     <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>2685</v>
-      </c>
-      <c r="B214" s="1"/>
+      <c r="A214" s="1"/>
+      <c r="B214" s="15"/>
       <c r="C214" s="6"/>
       <c r="D214" s="1"/>
-      <c r="K214" s="16"/>
+      <c r="K214" s="15"/>
     </row>
     <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
@@ -14443,6 +14429,7 @@
       <c r="C218" s="6"/>
       <c r="D218" s="1"/>
       <c r="K218" s="15"/>
+      <c r="L218" s="6"/>
     </row>
     <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
@@ -14450,7 +14437,6 @@
       <c r="C219" s="6"/>
       <c r="D219" s="1"/>
       <c r="K219" s="15"/>
-      <c r="L219" s="6"/>
     </row>
     <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
@@ -14553,11 +14539,10 @@
     <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="15"/>
-      <c r="C234" s="6"/>
       <c r="D234" s="1"/>
       <c r="K234" s="15"/>
     </row>
-    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="15"/>
       <c r="D235" s="1"/>
@@ -14836,13 +14821,7 @@
     <row r="281" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="15"/>
-      <c r="D281" s="1"/>
       <c r="K281" s="15"/>
-    </row>
-    <row r="282" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1"/>
-      <c r="B282" s="15"/>
-      <c r="K282" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14989,7 +14968,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -15014,7 +14993,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -15034,7 +15013,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -15054,7 +15033,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -15078,7 +15057,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -15101,7 +15080,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -15120,7 +15099,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -15138,7 +15117,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -15156,7 +15135,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -15175,7 +15154,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -15194,7 +15173,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -15213,7 +15192,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15229,7 +15208,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15246,7 +15225,7 @@
       <c r="D18" s="1"/>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -15265,7 +15244,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -15282,7 +15261,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15298,7 +15277,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15315,7 +15294,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15332,7 +15311,7 @@
       <c r="D23" s="1"/>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15350,7 +15329,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -15367,7 +15346,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -15384,7 +15363,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -15401,7 +15380,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -15418,7 +15397,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15436,7 +15415,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15452,7 +15431,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15470,7 +15449,7 @@
         <v>35</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15486,7 +15465,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15502,7 +15481,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15518,7 +15497,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15534,7 +15513,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15550,7 +15529,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15568,7 +15547,7 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15584,7 +15563,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15600,7 +15579,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15616,7 +15595,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15632,7 +15611,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15648,7 +15627,7 @@
       </c>
       <c r="D42" s="6"/>
       <c r="K42" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -15667,7 +15646,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15683,7 +15662,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15702,7 +15681,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15718,7 +15697,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -15735,7 +15714,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15751,7 +15730,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15767,7 +15746,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15783,7 +15762,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15799,7 +15778,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15817,7 +15796,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15833,7 +15812,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15849,7 +15828,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15865,7 +15844,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15883,7 +15862,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15899,7 +15878,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15917,7 +15896,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15933,7 +15912,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15949,7 +15928,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17370,7 +17349,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -17395,7 +17374,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -17415,7 +17394,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -17435,7 +17414,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -17459,7 +17438,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -17482,7 +17461,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -17501,7 +17480,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -17519,7 +17498,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -17537,7 +17516,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -17556,7 +17535,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -17575,7 +17554,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -17594,7 +17573,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -17612,7 +17591,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -17629,7 +17608,7 @@
       <c r="D18" s="1"/>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -17646,7 +17625,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="K19" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -17665,7 +17644,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -17681,7 +17660,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="K21" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -17698,7 +17677,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -17717,7 +17696,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -17733,7 +17712,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -17750,7 +17729,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -17767,7 +17746,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -17784,7 +17763,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -17801,7 +17780,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -17819,7 +17798,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -17835,7 +17814,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -17851,7 +17830,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -17867,7 +17846,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -17885,7 +17864,7 @@
         <v>30</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -17901,7 +17880,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -17917,7 +17896,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -17933,7 +17912,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -17949,7 +17928,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -17967,7 +17946,7 @@
         <v>30</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -17985,7 +17964,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -18003,7 +17982,7 @@
         <v>30</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -18019,7 +17998,7 @@
       </c>
       <c r="D41" s="6"/>
       <c r="K41" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -18037,7 +18016,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -18054,7 +18033,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -18070,7 +18049,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -18087,7 +18066,7 @@
       <c r="D45" s="1"/>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -18103,7 +18082,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -18120,7 +18099,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -18136,7 +18115,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -18152,7 +18131,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -18168,7 +18147,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -18184,7 +18163,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -18202,7 +18181,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -18218,7 +18197,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -18236,7 +18215,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -18254,7 +18233,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -18272,7 +18251,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -18288,7 +18267,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -18304,7 +18283,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -18322,7 +18301,7 @@
         <v>21</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -18340,7 +18319,7 @@
         <v>30</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -18356,7 +18335,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -18374,7 +18353,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -18391,7 +18370,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -18408,7 +18387,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -18425,7 +18404,7 @@
       <c r="D65" s="1"/>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -18442,7 +18421,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -18458,7 +18437,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -18474,7 +18453,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -18491,7 +18470,7 @@
       <c r="D69" s="1"/>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -18509,7 +18488,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -18525,7 +18504,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -18541,7 +18520,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -18557,7 +18536,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -18574,7 +18553,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -18590,7 +18569,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -18606,7 +18585,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -18622,7 +18601,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -18639,7 +18618,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -18656,7 +18635,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -18674,7 +18653,7 @@
         <v>22</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18690,7 +18669,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18708,7 +18687,7 @@
         <v>35</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -18724,7 +18703,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -18742,7 +18721,7 @@
         <v>22</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -18758,7 +18737,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -18774,7 +18753,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -18792,7 +18771,7 @@
         <v>35</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -18808,7 +18787,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -18826,7 +18805,7 @@
         <v>30</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -18842,7 +18821,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -18858,7 +18837,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -18876,7 +18855,7 @@
         <v>35</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -18892,7 +18871,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -18908,7 +18887,7 @@
       </c>
       <c r="D94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -18924,7 +18903,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19923,11 +19902,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J106" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D124" sqref="D124"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20062,7 +20041,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -20087,7 +20066,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -20109,7 +20088,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -20129,7 +20108,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -20155,7 +20134,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -20178,7 +20157,7 @@
       <c r="D10" s="6"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -20199,7 +20178,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -20217,7 +20196,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="K12" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -20237,7 +20216,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -20256,7 +20235,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="K14" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -20275,7 +20254,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="K15" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -20294,7 +20273,7 @@
       <c r="D16" s="6"/>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -20310,7 +20289,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="K17" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -20329,7 +20308,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -20348,7 +20327,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -20367,7 +20346,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -20383,7 +20362,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="K21" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -20400,7 +20379,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -20419,7 +20398,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -20435,7 +20414,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="K24" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -20452,7 +20431,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -20468,7 +20447,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -20485,7 +20464,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="K27" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -20502,7 +20481,7 @@
       </c>
       <c r="D28" s="6"/>
       <c r="K28" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -20518,7 +20497,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="K29" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -20534,7 +20513,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="K30" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -20552,7 +20531,7 @@
         <v>30</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -20568,7 +20547,7 @@
       </c>
       <c r="D32" s="6"/>
       <c r="K32" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -20586,7 +20565,7 @@
         <v>30</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -20602,7 +20581,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="K34" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -20620,7 +20599,7 @@
         <v>30</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -20638,7 +20617,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -20656,7 +20635,7 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -20674,7 +20653,7 @@
         <v>19</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -20692,7 +20671,7 @@
         <v>30</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -20704,27 +20683,27 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D40" s="6"/>
       <c r="K40" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="D41" s="6"/>
       <c r="K41" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -20740,7 +20719,7 @@
       </c>
       <c r="D42" s="6"/>
       <c r="K42" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -20757,7 +20736,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="K43" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -20773,7 +20752,7 @@
       </c>
       <c r="D44" s="6"/>
       <c r="K44" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -20792,7 +20771,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -20808,7 +20787,7 @@
       </c>
       <c r="D46" s="6"/>
       <c r="K46" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -20825,7 +20804,7 @@
       </c>
       <c r="D47" s="6"/>
       <c r="K47" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -20843,7 +20822,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -20859,7 +20838,7 @@
       </c>
       <c r="D49" s="6"/>
       <c r="K49" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -20877,7 +20856,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -20893,7 +20872,7 @@
       </c>
       <c r="D51" s="6"/>
       <c r="K51" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -20911,7 +20890,7 @@
         <v>88</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -20927,7 +20906,7 @@
       </c>
       <c r="D53" s="6"/>
       <c r="K53" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -20945,7 +20924,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -20961,7 +20940,7 @@
       </c>
       <c r="D55" s="6"/>
       <c r="K55" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -20979,7 +20958,7 @@
         <v>35</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -20995,7 +20974,7 @@
       </c>
       <c r="D57" s="6"/>
       <c r="K57" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -21013,7 +20992,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -21029,7 +21008,7 @@
       </c>
       <c r="D59" s="6"/>
       <c r="K59" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -21045,7 +21024,7 @@
       </c>
       <c r="D60" s="6"/>
       <c r="K60" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -21063,7 +21042,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -21079,7 +21058,7 @@
       </c>
       <c r="D62" s="6"/>
       <c r="K62" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -21098,7 +21077,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -21115,7 +21094,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -21132,7 +21111,7 @@
       <c r="D65" s="6"/>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -21149,7 +21128,7 @@
       </c>
       <c r="D66" s="6"/>
       <c r="K66" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -21165,7 +21144,7 @@
       </c>
       <c r="D67" s="6"/>
       <c r="K67" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -21181,7 +21160,7 @@
       </c>
       <c r="D68" s="6"/>
       <c r="K68" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -21200,7 +21179,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -21218,7 +21197,7 @@
         <v>22</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -21236,7 +21215,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -21252,7 +21231,7 @@
       </c>
       <c r="D72" s="6"/>
       <c r="K72" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -21268,7 +21247,7 @@
       </c>
       <c r="D73" s="6"/>
       <c r="K73" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -21287,7 +21266,7 @@
         <v>30</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -21303,7 +21282,7 @@
       </c>
       <c r="D75" s="6"/>
       <c r="K75" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -21321,7 +21300,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -21337,7 +21316,7 @@
       </c>
       <c r="D77" s="6"/>
       <c r="K77" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -21356,7 +21335,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -21375,7 +21354,7 @@
         <v>22</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -21393,7 +21372,7 @@
         <v>30</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -21409,7 +21388,7 @@
       </c>
       <c r="D81" s="6"/>
       <c r="K81" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -21427,7 +21406,7 @@
         <v>30</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -21443,7 +21422,7 @@
       </c>
       <c r="D83" s="6"/>
       <c r="K83" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -21461,7 +21440,7 @@
         <v>22</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -21477,7 +21456,7 @@
       </c>
       <c r="D85" s="6"/>
       <c r="K85" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -21493,7 +21472,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="K86" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -21509,7 +21488,7 @@
       </c>
       <c r="D87" s="6"/>
       <c r="K87" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -21527,7 +21506,7 @@
         <v>30</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -21543,7 +21522,7 @@
       </c>
       <c r="D89" s="6"/>
       <c r="K89" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -21561,7 +21540,7 @@
         <v>30</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -21579,7 +21558,7 @@
         <v>22</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -21595,7 +21574,7 @@
       </c>
       <c r="D92" s="6"/>
       <c r="K92" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -21613,7 +21592,7 @@
         <v>35</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -21629,7 +21608,7 @@
       </c>
       <c r="D94" s="6"/>
       <c r="K94" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -21645,7 +21624,7 @@
       </c>
       <c r="D95" s="6"/>
       <c r="K95" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -21663,7 +21642,7 @@
         <v>22</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -21679,7 +21658,7 @@
       </c>
       <c r="D97" s="6"/>
       <c r="K97" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -21697,7 +21676,7 @@
         <v>30</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -21713,7 +21692,7 @@
       </c>
       <c r="D99" s="6"/>
       <c r="K99" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -21731,7 +21710,7 @@
         <v>19</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -21749,7 +21728,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -21765,7 +21744,7 @@
       </c>
       <c r="D102" s="6"/>
       <c r="K102" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -21781,7 +21760,7 @@
       </c>
       <c r="D103" s="6"/>
       <c r="K103" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -21799,7 +21778,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -21815,7 +21794,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="K105" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -21833,7 +21812,7 @@
         <v>30</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -21849,7 +21828,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="K107" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -21865,7 +21844,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="K108" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -21883,7 +21862,7 @@
         <v>30</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -21900,7 +21879,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="K110" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -21916,7 +21895,7 @@
       </c>
       <c r="D111" s="6"/>
       <c r="K111" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -21934,7 +21913,7 @@
         <v>30</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -21950,7 +21929,7 @@
       </c>
       <c r="D113" s="6"/>
       <c r="K113" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -21968,7 +21947,7 @@
         <v>22</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -21987,7 +21966,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -22005,7 +21984,7 @@
         <v>35</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -22021,7 +22000,7 @@
       </c>
       <c r="D117" s="6"/>
       <c r="K117" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -22040,7 +22019,7 @@
         <v>22</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -22056,7 +22035,7 @@
       </c>
       <c r="D119" s="6"/>
       <c r="K119" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -22074,7 +22053,7 @@
         <v>22</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -22090,7 +22069,7 @@
       </c>
       <c r="D121" s="6"/>
       <c r="K121" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -22108,7 +22087,7 @@
         <v>22</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -22124,7 +22103,7 @@
       </c>
       <c r="D123" s="6"/>
       <c r="K123" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -22140,7 +22119,7 @@
       </c>
       <c r="D124" s="6"/>
       <c r="K124" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -22152,7 +22131,7 @@
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="K125" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G2.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6957AAA1-A6B9-4531-B06D-798039A4691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C063DC-9D22-4283-B5ED-296C5AAF3E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <sheet name="S2" sheetId="6" r:id="rId5"/>
     <sheet name="S3" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'D3'!$A$4:$U$213</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="508">
   <si>
     <t>D1</t>
   </si>
@@ -301,12 +306,6 @@
     <t>GOPRO1292</t>
   </si>
   <si>
-    <t>tu</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>plate</t>
   </si>
   <si>
@@ -397,9 +396,6 @@
     <t>GOPRO1307-8-9</t>
   </si>
   <si>
-    <t>CCCA</t>
-  </si>
-  <si>
     <t>GOPRO1309</t>
   </si>
   <si>
@@ -421,9 +417,6 @@
     <t>GOPRO1312</t>
   </si>
   <si>
-    <t>END</t>
-  </si>
-  <si>
     <t>GOPR1315</t>
   </si>
   <si>
@@ -827,9 +820,6 @@
   </si>
   <si>
     <t>GOPR1392</t>
-  </si>
-  <si>
-    <t>encrustin</t>
   </si>
   <si>
     <t>GOPR1392-3</t>
@@ -1932,10 +1922,10 @@
   <dimension ref="A1:U268"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B182" sqref="B182"/>
+      <selection pane="bottomRight" activeCell="K188" sqref="K188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3520,7 +3510,7 @@
         <v>18</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>85</v>
@@ -3556,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>85</v>
@@ -3592,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>85</v>
@@ -3681,7 +3671,7 @@
         <v>30</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3699,7 +3689,7 @@
         <v>19</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3717,7 +3707,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3733,7 +3723,7 @@
       </c>
       <c r="D102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3749,7 +3739,7 @@
       </c>
       <c r="D103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3767,7 +3757,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3785,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3801,7 +3791,7 @@
       </c>
       <c r="D106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3817,7 +3807,7 @@
       </c>
       <c r="D107" s="1"/>
       <c r="K107" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3835,7 +3825,7 @@
         <v>30</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3853,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -3870,7 +3860,7 @@
       </c>
       <c r="D110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3888,7 +3878,7 @@
         <v>19</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3904,7 +3894,7 @@
       </c>
       <c r="D112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3922,7 +3912,7 @@
         <v>30</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3940,7 +3930,7 @@
         <v>19</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3959,7 +3949,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3977,7 +3967,7 @@
         <v>22</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -3995,7 +3985,7 @@
         <v>35</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -4014,7 +4004,7 @@
         <v>30</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4032,7 +4022,7 @@
         <v>22</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4050,7 +4040,7 @@
         <v>35</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4068,7 +4058,7 @@
         <v>30</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4086,7 +4076,7 @@
         <v>22</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4104,7 +4094,7 @@
         <v>30</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4120,7 +4110,7 @@
       </c>
       <c r="D124" s="1"/>
       <c r="K124" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -4139,7 +4129,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4155,7 +4145,7 @@
       </c>
       <c r="D126" s="1"/>
       <c r="K126" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4171,7 +4161,7 @@
       </c>
       <c r="D127" s="1"/>
       <c r="K127" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4189,7 +4179,7 @@
         <v>19</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4207,7 +4197,7 @@
         <v>30</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4225,7 +4215,7 @@
         <v>35</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4243,7 +4233,7 @@
         <v>30</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4261,7 +4251,7 @@
         <v>19</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4279,7 +4269,7 @@
         <v>30</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4297,7 +4287,7 @@
         <v>19</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4315,7 +4305,7 @@
         <v>30</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4333,7 +4323,7 @@
         <v>19</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4349,7 +4339,7 @@
       </c>
       <c r="D137" s="6"/>
       <c r="K137" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4367,7 +4357,7 @@
         <v>35</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4382,10 +4372,10 @@
         <v>4</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4403,7 +4393,7 @@
         <v>30</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4421,7 +4411,7 @@
         <v>19</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4439,7 +4429,7 @@
         <v>30</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4454,10 +4444,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4475,7 +4465,7 @@
         <v>30</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4491,7 +4481,7 @@
       </c>
       <c r="D145" s="1"/>
       <c r="K145" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4510,7 +4500,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4526,7 +4516,7 @@
       </c>
       <c r="D147" s="1"/>
       <c r="K147" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4544,7 +4534,7 @@
         <v>35</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4562,7 +4552,7 @@
         <v>30</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4580,7 +4570,7 @@
         <v>19</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4598,7 +4588,7 @@
         <v>35</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4616,7 +4606,7 @@
         <v>30</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4634,7 +4624,7 @@
         <v>19</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4650,7 +4640,7 @@
       </c>
       <c r="D154" s="1"/>
       <c r="K154" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4668,7 +4658,7 @@
         <v>22</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4684,7 +4674,7 @@
       </c>
       <c r="D156" s="1"/>
       <c r="K156" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4700,7 +4690,7 @@
       </c>
       <c r="D157" s="1"/>
       <c r="K157" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4716,7 +4706,7 @@
       </c>
       <c r="D158" s="1"/>
       <c r="K158" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4734,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -4752,7 +4742,7 @@
         <v>19</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4770,7 +4760,7 @@
         <v>19</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4785,10 +4775,10 @@
         <v>4</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4804,7 +4794,7 @@
       </c>
       <c r="D163" s="1"/>
       <c r="K163" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -4823,7 +4813,7 @@
         <v>30</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4841,7 +4831,7 @@
         <v>19</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4856,10 +4846,10 @@
         <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4877,7 +4867,7 @@
         <v>19</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4893,7 +4883,7 @@
       </c>
       <c r="D168" s="1"/>
       <c r="K168" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4909,7 +4899,7 @@
       </c>
       <c r="D169" s="1"/>
       <c r="K169" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4924,10 +4914,10 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4945,7 +4935,7 @@
         <v>22</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4963,7 +4953,7 @@
         <v>30</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4981,7 +4971,7 @@
         <v>22</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4999,7 +4989,7 @@
         <v>19</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -5017,7 +5007,7 @@
         <v>30</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -5033,7 +5023,7 @@
       </c>
       <c r="D176" s="1"/>
       <c r="K176" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -5195,115 +5185,112 @@
       <c r="D192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="6"/>
       <c r="D193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="6"/>
       <c r="D194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="6"/>
       <c r="D195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="6"/>
       <c r="D196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="6"/>
       <c r="D197" s="1"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="6"/>
       <c r="D198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="6"/>
       <c r="D199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="6"/>
       <c r="D200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="6"/>
       <c r="D201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="6"/>
       <c r="D202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="6"/>
       <c r="D203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="6"/>
       <c r="D204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="6"/>
       <c r="D205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="6"/>
       <c r="D206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="6"/>
       <c r="D207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="6"/>
@@ -5698,6 +5685,7 @@
       <c r="K268" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U182" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5709,11 +5697,11 @@
   </sheetPr>
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E275" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5848,7 +5836,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -5875,7 +5863,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -5897,7 +5885,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -5907,7 +5895,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
@@ -5919,7 +5907,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -5945,7 +5933,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -5968,7 +5956,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -5989,7 +5977,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -6009,7 +5997,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -6029,7 +6017,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -6048,7 +6036,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -6069,7 +6057,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -6090,7 +6078,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6108,7 +6096,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6127,7 +6115,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -6146,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -6165,7 +6153,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6173,7 +6161,7 @@
         <v>321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -6181,7 +6169,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6200,7 +6188,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6219,7 +6207,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6237,7 +6225,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -6246,7 +6234,7 @@
         <v>369</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -6254,7 +6242,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -6271,7 +6259,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -6290,7 +6278,7 @@
         <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -6306,10 +6294,10 @@
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6324,10 +6312,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6343,7 +6331,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6359,7 +6347,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6367,7 +6355,7 @@
         <v>432</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="0"/>
@@ -6375,7 +6363,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6393,7 +6381,7 @@
         <v>19</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6401,7 +6389,7 @@
         <v>442</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" si="0"/>
@@ -6409,7 +6397,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6427,7 +6415,7 @@
         <v>22</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6435,7 +6423,7 @@
         <v>453</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" si="0"/>
@@ -6443,7 +6431,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6459,7 +6447,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6467,7 +6455,7 @@
         <v>470</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="0"/>
@@ -6475,7 +6463,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6493,7 +6481,7 @@
         <v>30</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6511,7 +6499,7 @@
         <v>19</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6529,7 +6517,7 @@
         <v>30</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6547,7 +6535,7 @@
         <v>20</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -6566,7 +6554,7 @@
         <v>22</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6584,7 +6572,7 @@
         <v>19</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6592,7 +6580,7 @@
         <v>527</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C45" s="6">
         <f t="shared" si="0"/>
@@ -6601,7 +6589,7 @@
       <c r="D45" s="1"/>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6619,7 +6607,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -6638,7 +6626,7 @@
         <v>19</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6656,7 +6644,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6664,7 +6652,7 @@
         <v>567</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C49" s="6">
         <f t="shared" si="0"/>
@@ -6672,7 +6660,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6690,7 +6678,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6698,7 +6686,7 @@
         <v>575</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C51" s="6">
         <f t="shared" si="0"/>
@@ -6706,7 +6694,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6724,7 +6712,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6739,10 +6727,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6760,7 +6748,7 @@
         <v>19</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6778,7 +6766,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6786,7 +6774,7 @@
         <v>597</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C56" s="6">
         <f t="shared" si="0"/>
@@ -6794,7 +6782,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6810,7 +6798,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6825,10 +6813,10 @@
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6846,7 +6834,7 @@
         <v>35</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6864,7 +6852,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6882,7 +6870,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6900,7 +6888,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -6909,7 +6897,7 @@
         <v>640</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C63" s="6">
         <f t="shared" si="0"/>
@@ -6917,7 +6905,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6936,7 +6924,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6953,7 +6941,7 @@
       <c r="D65" s="1"/>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -6972,7 +6960,7 @@
         <v>30</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -6987,10 +6975,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7008,7 +6996,7 @@
         <v>30</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7016,7 +7004,7 @@
         <v>723</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C69" s="6">
         <f t="shared" si="0"/>
@@ -7025,7 +7013,7 @@
       <c r="D69" s="1"/>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7043,7 +7031,7 @@
         <v>22</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7059,7 +7047,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7074,10 +7062,10 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7095,7 +7083,7 @@
         <v>30</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -7104,7 +7092,7 @@
         <v>750</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C74" s="6">
         <f t="shared" si="1"/>
@@ -7112,7 +7100,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7130,7 +7118,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L75" t="s">
         <v>32</v>
@@ -7149,7 +7137,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7157,7 +7145,7 @@
         <v>780</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C77" s="6">
         <f t="shared" si="1"/>
@@ -7165,7 +7153,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -7184,7 +7172,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -7193,7 +7181,7 @@
         <v>795</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C79" s="6">
         <f t="shared" si="1"/>
@@ -7201,7 +7189,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7219,7 +7207,7 @@
         <v>30</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7237,7 +7225,7 @@
         <v>22</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7255,7 +7243,7 @@
         <v>30</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7263,7 +7251,7 @@
         <v>823</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C83" s="6">
         <f t="shared" si="1"/>
@@ -7271,7 +7259,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7289,7 +7277,7 @@
         <v>30</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7305,7 +7293,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7323,7 +7311,7 @@
         <v>30</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7341,7 +7329,7 @@
         <v>22</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7359,7 +7347,7 @@
         <v>19</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7367,7 +7355,7 @@
         <v>886</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C89" s="6">
         <f t="shared" si="1"/>
@@ -7375,7 +7363,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7393,7 +7381,7 @@
         <v>22</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7401,7 +7389,7 @@
         <v>895</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C91" s="6">
         <f t="shared" si="1"/>
@@ -7409,7 +7397,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7427,7 +7415,7 @@
         <v>30</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7435,7 +7423,7 @@
         <v>904</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C93" s="6">
         <f t="shared" si="1"/>
@@ -7443,7 +7431,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7461,7 +7449,7 @@
         <v>30</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7469,7 +7457,7 @@
         <v>921</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C95" s="6">
         <f t="shared" si="1"/>
@@ -7477,7 +7465,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -7495,7 +7483,7 @@
         <v>22</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7503,7 +7491,7 @@
         <v>927</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C97" s="6">
         <f t="shared" si="1"/>
@@ -7511,7 +7499,7 @@
       </c>
       <c r="D97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7529,7 +7517,7 @@
         <v>22</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7537,7 +7525,7 @@
         <v>934</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C99" s="6">
         <f t="shared" si="1"/>
@@ -7545,7 +7533,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7563,7 +7551,7 @@
         <v>22</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7581,7 +7569,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7599,7 +7587,7 @@
         <v>19</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7617,7 +7605,7 @@
         <v>22</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7635,7 +7623,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7651,7 +7639,7 @@
       </c>
       <c r="D105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7669,7 +7657,7 @@
         <v>22</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7687,7 +7675,7 @@
         <v>30</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7703,7 +7691,7 @@
       </c>
       <c r="D108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7721,7 +7709,7 @@
         <v>22</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -7740,7 +7728,7 @@
         <v>30</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7755,10 +7743,10 @@
         <v>4</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7776,7 +7764,7 @@
         <v>35</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7792,7 +7780,7 @@
       </c>
       <c r="D113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7800,7 +7788,7 @@
         <v>1072</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C114" s="6">
         <f t="shared" si="1"/>
@@ -7808,7 +7796,7 @@
       </c>
       <c r="D114" s="1"/>
       <c r="K114" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7827,7 +7815,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7843,7 +7831,7 @@
       </c>
       <c r="D116" s="1"/>
       <c r="K116" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7861,7 +7849,7 @@
         <v>30</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -7880,7 +7868,7 @@
         <v>22</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7898,7 +7886,7 @@
         <v>30</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7906,7 +7894,7 @@
         <v>1126</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C120" s="6">
         <f t="shared" si="1"/>
@@ -7914,7 +7902,7 @@
       </c>
       <c r="D120" s="1"/>
       <c r="K120" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7932,7 +7920,7 @@
         <v>22</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7940,7 +7928,7 @@
         <v>1133</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C122" s="6">
         <f t="shared" si="1"/>
@@ -7948,7 +7936,7 @@
       </c>
       <c r="D122" s="1"/>
       <c r="K122" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7966,7 +7954,7 @@
         <v>35</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -7974,7 +7962,7 @@
         <v>1144</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C124" s="6">
         <f t="shared" si="1"/>
@@ -7982,7 +7970,7 @@
       </c>
       <c r="D124" s="1"/>
       <c r="K124" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L124" s="1"/>
     </row>
@@ -8001,7 +7989,7 @@
         <v>22</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L125" s="1"/>
     </row>
@@ -8010,7 +7998,7 @@
         <v>1159</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C126" s="6">
         <f t="shared" si="1"/>
@@ -8018,7 +8006,7 @@
       </c>
       <c r="D126" s="1"/>
       <c r="K126" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8034,7 +8022,7 @@
       </c>
       <c r="D127" s="1"/>
       <c r="K127" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8049,10 +8037,10 @@
         <v>7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8070,7 +8058,7 @@
         <v>22</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8078,17 +8066,17 @@
         <v>1196</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C130" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8106,7 +8094,7 @@
         <v>30</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8121,10 +8109,10 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8142,7 +8130,7 @@
         <v>22</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8150,7 +8138,7 @@
         <v>1220</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C134" s="6">
         <f t="shared" ref="C134:C197" si="2">A135-A134</f>
@@ -8158,7 +8146,7 @@
       </c>
       <c r="D134" s="1"/>
       <c r="K134" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8176,7 +8164,7 @@
         <v>19</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8194,7 +8182,7 @@
         <v>22</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8202,7 +8190,7 @@
         <v>1231</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C137" s="6">
         <f t="shared" si="2"/>
@@ -8210,7 +8198,7 @@
       </c>
       <c r="D137" s="1"/>
       <c r="K137" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8228,7 +8216,7 @@
         <v>35</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8244,7 +8232,7 @@
       </c>
       <c r="D139" s="1"/>
       <c r="K139" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8262,7 +8250,7 @@
         <v>22</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8278,7 +8266,7 @@
       </c>
       <c r="D141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8296,7 +8284,7 @@
         <v>30</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8312,7 +8300,7 @@
       </c>
       <c r="D143" s="1"/>
       <c r="K143" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8330,7 +8318,7 @@
         <v>30</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L144" t="s">
         <v>32</v>
@@ -8341,7 +8329,7 @@
         <v>1307</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C145" s="6">
         <f t="shared" si="2"/>
@@ -8349,7 +8337,7 @@
       </c>
       <c r="D145" s="1"/>
       <c r="K145" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L145" t="s">
         <v>32</v>
@@ -8371,7 +8359,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L146" t="s">
         <v>32</v>
@@ -8382,7 +8370,7 @@
         <v>1316</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C147" s="6">
         <f t="shared" si="2"/>
@@ -8390,7 +8378,7 @@
       </c>
       <c r="D147" s="1"/>
       <c r="K147" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8408,7 +8396,7 @@
         <v>30</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8426,7 +8414,7 @@
         <v>19</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8444,7 +8432,7 @@
         <v>30</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8462,7 +8450,7 @@
         <v>22</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8470,7 +8458,7 @@
         <v>1361</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C152" s="6">
         <f t="shared" si="2"/>
@@ -8478,7 +8466,7 @@
       </c>
       <c r="D152" s="1"/>
       <c r="K152" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8496,7 +8484,7 @@
         <v>22</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8514,7 +8502,7 @@
         <v>30</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8529,10 +8517,10 @@
         <v>4</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8550,7 +8538,7 @@
         <v>22</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8568,7 +8556,7 @@
         <v>19</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8583,10 +8571,10 @@
         <v>4</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8604,7 +8592,7 @@
         <v>19</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8622,7 +8610,7 @@
         <v>30</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8640,7 +8628,7 @@
         <v>19</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8658,7 +8646,7 @@
         <v>22</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8676,7 +8664,7 @@
         <v>35</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -8685,7 +8673,7 @@
         <v>1451</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C164" s="6">
         <f t="shared" si="2"/>
@@ -8693,7 +8681,7 @@
       </c>
       <c r="D164" s="1"/>
       <c r="K164" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8708,10 +8696,10 @@
         <v>11</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8729,7 +8717,7 @@
         <v>22</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8747,7 +8735,7 @@
         <v>30</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8765,7 +8753,7 @@
         <v>22</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8773,7 +8761,7 @@
         <v>1500</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C169" s="6">
         <f t="shared" si="2"/>
@@ -8781,7 +8769,7 @@
       </c>
       <c r="D169" s="1"/>
       <c r="K169" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8799,7 +8787,7 @@
         <v>22</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8807,7 +8795,7 @@
         <v>1539</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C171" s="6">
         <f t="shared" si="2"/>
@@ -8815,7 +8803,7 @@
       </c>
       <c r="D171" s="1"/>
       <c r="K171" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8833,7 +8821,7 @@
         <v>22</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8851,7 +8839,7 @@
         <v>30</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8859,7 +8847,7 @@
         <v>1549</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C174" s="6">
         <f t="shared" si="2"/>
@@ -8867,7 +8855,7 @@
       </c>
       <c r="D174" s="1"/>
       <c r="K174" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8883,7 +8871,7 @@
       </c>
       <c r="D175" s="1"/>
       <c r="K175" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -8901,7 +8889,7 @@
         <v>30</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8909,7 +8897,7 @@
         <v>1568</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C177" s="6">
         <f t="shared" si="2"/>
@@ -8917,7 +8905,7 @@
       </c>
       <c r="D177" s="1"/>
       <c r="K177" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8935,7 +8923,7 @@
         <v>30</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8943,7 +8931,7 @@
         <v>1579</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C179" s="6">
         <f t="shared" si="2"/>
@@ -8951,7 +8939,7 @@
       </c>
       <c r="D179" s="1"/>
       <c r="K179" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8969,7 +8957,7 @@
         <v>30</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -8985,7 +8973,7 @@
       </c>
       <c r="D181" s="1"/>
       <c r="K181" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9003,7 +8991,7 @@
         <v>19</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9021,7 +9009,7 @@
         <v>35</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9037,7 +9025,7 @@
       </c>
       <c r="D184" s="1"/>
       <c r="K184" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9055,7 +9043,7 @@
         <v>30</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9073,7 +9061,7 @@
         <v>22</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9089,7 +9077,7 @@
       </c>
       <c r="D187" s="1"/>
       <c r="K187" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9107,7 +9095,7 @@
         <v>22</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9115,7 +9103,7 @@
         <v>1704</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C189" s="6">
         <f t="shared" si="2"/>
@@ -9123,7 +9111,7 @@
       </c>
       <c r="D189" s="1"/>
       <c r="K189" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9141,7 +9129,7 @@
         <v>22</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9157,7 +9145,7 @@
       </c>
       <c r="D191" s="1"/>
       <c r="K191" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9175,7 +9163,7 @@
         <v>30</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9193,7 +9181,7 @@
         <v>22</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9201,7 +9189,7 @@
         <v>1726</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C194" s="6">
         <f t="shared" si="2"/>
@@ -9209,7 +9197,7 @@
       </c>
       <c r="D194" s="1"/>
       <c r="K194" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9227,7 +9215,7 @@
         <v>22</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9245,7 +9233,7 @@
         <v>30</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9263,7 +9251,7 @@
         <v>22</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9279,7 +9267,7 @@
       </c>
       <c r="D198" s="1"/>
       <c r="K198" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9297,7 +9285,7 @@
         <v>22</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9312,10 +9300,10 @@
         <v>16</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9323,7 +9311,7 @@
         <v>1793</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C201" s="6">
         <f t="shared" si="3"/>
@@ -9331,7 +9319,7 @@
       </c>
       <c r="D201" s="1"/>
       <c r="K201" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9349,7 +9337,7 @@
         <v>22</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9357,7 +9345,7 @@
         <v>1817</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C203" s="6">
         <f t="shared" si="3"/>
@@ -9365,7 +9353,7 @@
       </c>
       <c r="D203" s="1"/>
       <c r="K203" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9383,7 +9371,7 @@
         <v>22</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9401,7 +9389,7 @@
         <v>19</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9409,7 +9397,7 @@
         <v>1845</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C206" s="6">
         <f t="shared" si="3"/>
@@ -9417,7 +9405,7 @@
       </c>
       <c r="D206" s="1"/>
       <c r="K206" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9435,7 +9423,7 @@
         <v>19</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9453,7 +9441,7 @@
         <v>22</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9461,7 +9449,7 @@
         <v>1875</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C209" s="6">
         <f t="shared" si="3"/>
@@ -9469,7 +9457,7 @@
       </c>
       <c r="D209" s="1"/>
       <c r="K209" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9487,7 +9475,7 @@
         <v>30</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9505,7 +9493,7 @@
         <v>22</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9513,7 +9501,7 @@
         <v>1916</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C212" s="6">
         <f t="shared" si="3"/>
@@ -9521,7 +9509,7 @@
       </c>
       <c r="D212" s="1"/>
       <c r="K212" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9539,7 +9527,7 @@
         <v>30</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9557,7 +9545,7 @@
         <v>19</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9573,7 +9561,7 @@
       </c>
       <c r="D215" s="1"/>
       <c r="K215" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9581,7 +9569,7 @@
         <v>1955</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C216" s="6">
         <f t="shared" si="3"/>
@@ -9589,7 +9577,7 @@
       </c>
       <c r="D216" s="1"/>
       <c r="K216" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9607,7 +9595,7 @@
         <v>22</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9625,7 +9613,7 @@
         <v>19</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9643,7 +9631,7 @@
         <v>22</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L219" s="6"/>
     </row>
@@ -9652,7 +9640,7 @@
         <v>1973</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C220" s="6">
         <f t="shared" si="3"/>
@@ -9660,7 +9648,7 @@
       </c>
       <c r="D220" s="1"/>
       <c r="K220" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9678,7 +9666,7 @@
         <v>30</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9686,7 +9674,7 @@
         <v>1987</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C222" s="6">
         <f t="shared" si="3"/>
@@ -9694,7 +9682,7 @@
       </c>
       <c r="D222" s="1"/>
       <c r="K222" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9712,7 +9700,7 @@
         <v>22</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -9730,7 +9718,7 @@
         <v>19</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9748,7 +9736,7 @@
         <v>30</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9756,7 +9744,7 @@
         <v>2030</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C226" s="6">
         <f t="shared" si="3"/>
@@ -9764,7 +9752,7 @@
       </c>
       <c r="D226" s="6"/>
       <c r="K226" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9782,7 +9770,7 @@
         <v>22</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9798,7 +9786,7 @@
       </c>
       <c r="D228" s="6"/>
       <c r="K228" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9806,7 +9794,7 @@
         <v>2070</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C229" s="6">
         <f t="shared" si="3"/>
@@ -9814,7 +9802,7 @@
       </c>
       <c r="D229" s="6"/>
       <c r="K229" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9832,7 +9820,7 @@
         <v>30</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9840,7 +9828,7 @@
         <v>2086</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C231" s="6">
         <f t="shared" si="3"/>
@@ -9848,7 +9836,7 @@
       </c>
       <c r="D231" s="6"/>
       <c r="K231" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9866,7 +9854,7 @@
         <v>30</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9874,7 +9862,7 @@
         <v>2092</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C233" s="6">
         <f t="shared" si="3"/>
@@ -9882,7 +9870,7 @@
       </c>
       <c r="D233" s="6"/>
       <c r="K233" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9900,7 +9888,7 @@
         <v>30</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -9908,14 +9896,14 @@
         <v>2112</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C235" s="6">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9933,7 +9921,7 @@
         <v>22</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9951,7 +9939,7 @@
         <v>30</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9969,7 +9957,7 @@
         <v>19</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9987,7 +9975,7 @@
         <v>30</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10002,7 +9990,7 @@
         <v>15</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10020,7 +10008,7 @@
         <v>30</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10038,7 +10026,7 @@
         <v>30</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10053,7 +10041,7 @@
         <v>6</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10071,7 +10059,7 @@
         <v>30</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10089,7 +10077,7 @@
         <v>19</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10097,14 +10085,14 @@
         <v>2263</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C246" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10122,7 +10110,7 @@
         <v>30</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10140,7 +10128,7 @@
         <v>19</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10158,7 +10146,7 @@
         <v>19</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10176,7 +10164,7 @@
         <v>30</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10184,14 +10172,14 @@
         <v>2317</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C251" s="6">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10209,7 +10197,7 @@
         <v>22</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10227,7 +10215,7 @@
         <v>19</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10245,7 +10233,7 @@
         <v>30</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10263,7 +10251,7 @@
         <v>22</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10281,7 +10269,7 @@
         <v>30</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10296,7 +10284,7 @@
         <v>5</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10314,7 +10302,7 @@
         <v>30</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10332,7 +10320,7 @@
         <v>20</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10350,7 +10338,7 @@
         <v>30</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10368,7 +10356,7 @@
         <v>22</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10386,7 +10374,7 @@
         <v>30</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10401,7 +10389,7 @@
         <v>7</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10419,7 +10407,7 @@
         <v>30</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10437,7 +10425,7 @@
         <v>19</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10455,7 +10443,7 @@
         <v>35</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10470,7 +10458,7 @@
         <v>9</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10488,7 +10476,7 @@
         <v>30</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10506,7 +10494,7 @@
         <v>22</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10524,7 +10512,7 @@
         <v>30</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10539,7 +10527,7 @@
         <v>2</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10557,7 +10545,7 @@
         <v>30</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10575,7 +10563,7 @@
         <v>20</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10593,7 +10581,7 @@
         <v>30</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10611,7 +10599,7 @@
         <v>19</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10626,21 +10614,20 @@
         <v>8</v>
       </c>
       <c r="D276" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>2657</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="B277" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U277" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10654,10 +10641,10 @@
   <dimension ref="A1:U281"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="K138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10787,7 +10774,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -10809,7 +10796,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -10829,7 +10816,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -10846,7 +10833,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -10870,7 +10857,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -10893,7 +10880,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="12"/>
       <c r="K10" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -10904,7 +10891,7 @@
         <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -10914,7 +10901,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -10932,7 +10919,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="K12" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -10942,7 +10929,7 @@
         <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -10952,7 +10939,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -10973,7 +10960,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -10984,7 +10971,7 @@
         <v>233</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -10994,7 +10981,7 @@
         <v>30</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -11013,7 +11000,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="12"/>
       <c r="K16" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11029,7 +11016,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="K17" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11037,7 +11024,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -11048,7 +11035,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -11065,7 +11052,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="K19" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -11074,7 +11061,7 @@
         <v>331</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -11082,7 +11069,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="K20" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11100,7 +11087,7 @@
         <v>35</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11117,7 +11104,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="K22" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11134,7 +11121,7 @@
       <c r="D23" s="1"/>
       <c r="F23" s="6"/>
       <c r="K23" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11142,7 +11129,7 @@
         <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -11152,7 +11139,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -11161,7 +11148,7 @@
         <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -11171,7 +11158,7 @@
         <v>22</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -11180,7 +11167,7 @@
         <v>385</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -11190,7 +11177,7 @@
         <v>30</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -11207,7 +11194,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="K27" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -11216,7 +11203,7 @@
         <v>421</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -11226,7 +11213,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11242,7 +11229,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="K29" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11250,7 +11237,7 @@
         <v>435</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -11260,7 +11247,7 @@
         <v>30</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11278,7 +11265,7 @@
         <v>19</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11286,17 +11273,17 @@
         <v>493</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11312,7 +11299,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="K33" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11328,7 +11315,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="K34" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11344,7 +11331,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="K35" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11360,7 +11347,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="K36" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11376,7 +11363,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="K37" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11392,7 +11379,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="K38" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11400,7 +11387,7 @@
         <v>545</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -11410,7 +11397,7 @@
         <v>30</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11426,7 +11413,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="K40" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11442,7 +11429,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="K41" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11460,7 +11447,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -11477,7 +11464,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="K43" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11493,7 +11480,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="K44" s="16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11501,7 +11488,7 @@
         <v>715</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -11512,7 +11499,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11528,7 +11515,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="K46" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -11537,7 +11524,7 @@
         <v>766</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -11545,7 +11532,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="K47" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11553,7 +11540,7 @@
         <v>771</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -11563,7 +11550,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11578,10 +11565,10 @@
         <v>16</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K49" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11589,7 +11576,7 @@
         <v>792</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -11599,7 +11586,7 @@
         <v>30</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11607,7 +11594,7 @@
         <v>847</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -11617,7 +11604,7 @@
         <v>35</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11635,7 +11622,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11643,7 +11630,7 @@
         <v>882</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -11653,7 +11640,7 @@
         <v>30</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11661,7 +11648,7 @@
         <v>885</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -11669,7 +11656,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="K54" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11685,7 +11672,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="K55" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11693,7 +11680,7 @@
         <v>892</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -11703,7 +11690,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11718,10 +11705,10 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11729,7 +11716,7 @@
         <v>898</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -11739,7 +11726,7 @@
         <v>22</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11755,7 +11742,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="K59" s="16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11771,7 +11758,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="K60" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11779,7 +11766,7 @@
         <v>952</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -11789,7 +11776,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11797,7 +11784,7 @@
         <v>955</v>
       </c>
       <c r="B62" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -11807,7 +11794,7 @@
         <v>22</v>
       </c>
       <c r="K62" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -11824,7 +11811,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="K63" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11843,7 +11830,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11860,7 +11847,7 @@
       <c r="D65" s="1"/>
       <c r="F65" s="12"/>
       <c r="K65" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -11877,7 +11864,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="K66" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11885,7 +11872,7 @@
         <v>997</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
@@ -11895,7 +11882,7 @@
         <v>30</v>
       </c>
       <c r="K67" s="16" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11911,7 +11898,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="K68" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11919,7 +11906,7 @@
         <v>1013</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C69">
         <f t="shared" si="0"/>
@@ -11930,7 +11917,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11938,7 +11925,7 @@
         <v>1022</v>
       </c>
       <c r="B70" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:C133" si="1">A71-A70</f>
@@ -11948,7 +11935,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11964,7 +11951,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="K71" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11980,7 +11967,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="K72" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -11988,7 +11975,7 @@
         <v>1070</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
@@ -11998,7 +11985,7 @@
         <v>30</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -12015,7 +12002,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="K74" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12023,7 +12010,7 @@
         <v>1089</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
@@ -12033,7 +12020,7 @@
         <v>30</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12049,7 +12036,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="K76" s="16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12067,7 +12054,7 @@
         <v>20</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -12084,7 +12071,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="K78" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -12103,7 +12090,7 @@
         <v>19</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12119,7 +12106,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="K80" s="16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12135,7 +12122,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="K81" s="16" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12143,7 +12130,7 @@
         <v>1245</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
@@ -12151,7 +12138,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="K82" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12167,7 +12154,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="K83" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12175,7 +12162,7 @@
         <v>1258</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
@@ -12183,7 +12170,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="K84" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12191,7 +12178,7 @@
         <v>1261</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
@@ -12201,7 +12188,7 @@
         <v>30</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12219,7 +12206,7 @@
         <v>19</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12227,7 +12214,7 @@
         <v>1272</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
@@ -12237,7 +12224,7 @@
         <v>22</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12245,7 +12232,7 @@
         <v>1274</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
@@ -12255,7 +12242,7 @@
         <v>30</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12263,7 +12250,7 @@
         <v>1281</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -12271,7 +12258,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="K89" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12287,7 +12274,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="K90" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12303,7 +12290,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="K91" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12311,7 +12298,7 @@
         <v>1331</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
@@ -12321,7 +12308,7 @@
         <v>30</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12329,7 +12316,7 @@
         <v>1334</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
@@ -12337,7 +12324,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="K93" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12345,7 +12332,7 @@
         <v>1340</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -12355,7 +12342,7 @@
         <v>30</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12363,7 +12350,7 @@
         <v>1353</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
@@ -12371,7 +12358,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="K95" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12389,7 +12376,7 @@
         <v>19</v>
       </c>
       <c r="K96" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12397,7 +12384,7 @@
         <v>1364</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
@@ -12407,7 +12394,7 @@
         <v>30</v>
       </c>
       <c r="K97" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12425,7 +12412,7 @@
         <v>19</v>
       </c>
       <c r="K98" s="16" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12433,7 +12420,7 @@
         <v>1440</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
@@ -12443,7 +12430,7 @@
         <v>30</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12459,7 +12446,7 @@
       </c>
       <c r="D100" s="1"/>
       <c r="K100" s="16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12467,7 +12454,7 @@
         <v>1468</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
@@ -12477,7 +12464,7 @@
         <v>22</v>
       </c>
       <c r="K101" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12493,7 +12480,7 @@
       </c>
       <c r="D102" s="1"/>
       <c r="K102" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12511,7 +12498,7 @@
         <v>19</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12527,7 +12514,7 @@
       </c>
       <c r="D104" s="1"/>
       <c r="K104" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12543,7 +12530,7 @@
       </c>
       <c r="D105" s="1"/>
       <c r="K105" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12561,7 +12548,7 @@
         <v>19</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12569,7 +12556,7 @@
         <v>1498</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
@@ -12579,7 +12566,7 @@
         <v>30</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12587,7 +12574,7 @@
         <v>1512</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
@@ -12595,7 +12582,7 @@
       </c>
       <c r="D108" s="1"/>
       <c r="K108" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12603,7 +12590,7 @@
         <v>1514</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
@@ -12613,7 +12600,7 @@
         <v>30</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -12622,7 +12609,7 @@
         <v>1518</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
@@ -12630,7 +12617,7 @@
       </c>
       <c r="D110" s="1"/>
       <c r="K110" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12638,7 +12625,7 @@
         <v>1531</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
@@ -12648,7 +12635,7 @@
         <v>30</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12656,7 +12643,7 @@
         <v>1554</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
@@ -12664,7 +12651,7 @@
       </c>
       <c r="D112" s="1"/>
       <c r="K112" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12680,7 +12667,7 @@
       </c>
       <c r="D113" s="1"/>
       <c r="K113" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12688,7 +12675,7 @@
         <v>1577</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
@@ -12698,7 +12685,7 @@
         <v>30</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12706,7 +12693,7 @@
         <v>1585</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
@@ -12717,7 +12704,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12725,7 +12712,7 @@
         <v>1587</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
@@ -12735,7 +12722,7 @@
         <v>30</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12751,7 +12738,7 @@
       </c>
       <c r="D117" s="1"/>
       <c r="K117" s="16" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -12760,7 +12747,7 @@
         <v>1666</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
@@ -12770,7 +12757,7 @@
         <v>30</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12778,7 +12765,7 @@
         <v>1678</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
@@ -12786,7 +12773,7 @@
       </c>
       <c r="D119" s="1"/>
       <c r="K119" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12801,10 +12788,10 @@
         <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12812,7 +12799,7 @@
         <v>1692</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
@@ -12822,7 +12809,7 @@
         <v>30</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12837,10 +12824,10 @@
         <v>4</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12848,7 +12835,7 @@
         <v>1721</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
@@ -12858,7 +12845,7 @@
         <v>30</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12873,10 +12860,10 @@
         <v>4</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -12885,7 +12872,7 @@
         <v>1726</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
@@ -12895,7 +12882,7 @@
         <v>30</v>
       </c>
       <c r="K125" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12903,7 +12890,7 @@
         <v>1732</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
@@ -12913,7 +12900,7 @@
         <v>22</v>
       </c>
       <c r="K126" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12931,7 +12918,7 @@
         <v>19</v>
       </c>
       <c r="K127" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -12947,7 +12934,7 @@
       </c>
       <c r="D128" s="1"/>
       <c r="K128" s="16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12965,7 +12952,7 @@
         <v>19</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12973,7 +12960,7 @@
         <v>1760</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
@@ -12983,7 +12970,7 @@
         <v>30</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -12991,7 +12978,7 @@
         <v>1763</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C131">
         <f t="shared" si="1"/>
@@ -12999,7 +12986,7 @@
       </c>
       <c r="D131" s="1"/>
       <c r="K131" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13007,7 +12994,7 @@
         <v>1772</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C132">
         <f t="shared" si="1"/>
@@ -13017,7 +13004,7 @@
         <v>30</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13035,7 +13022,7 @@
         <v>19</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13043,7 +13030,7 @@
         <v>1776</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C134">
         <f t="shared" ref="C134:C197" si="2">A135-A134</f>
@@ -13053,7 +13040,7 @@
         <v>22</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13069,7 +13056,7 @@
       </c>
       <c r="D135" s="15"/>
       <c r="K135" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13077,7 +13064,7 @@
         <v>1784</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
@@ -13087,7 +13074,7 @@
         <v>22</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13095,7 +13082,7 @@
         <v>1791</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
@@ -13105,7 +13092,7 @@
         <v>30</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13113,7 +13100,7 @@
         <v>1810</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
@@ -13123,7 +13110,7 @@
         <v>22</v>
       </c>
       <c r="K138" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13139,7 +13126,7 @@
       </c>
       <c r="D139" s="15"/>
       <c r="K139" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13147,7 +13134,7 @@
         <v>1820</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
@@ -13157,7 +13144,7 @@
         <v>22</v>
       </c>
       <c r="K140" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13175,7 +13162,7 @@
         <v>19</v>
       </c>
       <c r="K141" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13183,7 +13170,7 @@
         <v>1854</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
@@ -13193,7 +13180,7 @@
         <v>22</v>
       </c>
       <c r="K142" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13209,7 +13196,7 @@
       </c>
       <c r="D143" s="15"/>
       <c r="K143" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13225,7 +13212,7 @@
       </c>
       <c r="D144" s="15"/>
       <c r="K144" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13233,7 +13220,7 @@
         <v>1873</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
@@ -13242,7 +13229,7 @@
       <c r="D145" s="15"/>
       <c r="F145" s="12"/>
       <c r="K145" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13258,7 +13245,7 @@
       </c>
       <c r="D146" s="15"/>
       <c r="K146" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13274,7 +13261,7 @@
       </c>
       <c r="D147" s="15"/>
       <c r="K147" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13282,7 +13269,7 @@
         <v>1889</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
@@ -13292,7 +13279,7 @@
         <v>30</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13300,7 +13287,7 @@
         <v>1894</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
@@ -13310,7 +13297,7 @@
         <v>22</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13318,7 +13305,7 @@
         <v>1898</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
@@ -13328,7 +13315,7 @@
         <v>30</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13344,7 +13331,7 @@
       </c>
       <c r="D151" s="15"/>
       <c r="K151" s="16" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13352,7 +13339,7 @@
         <v>1922</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
@@ -13360,7 +13347,7 @@
       </c>
       <c r="D152" s="15"/>
       <c r="K152" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13378,7 +13365,7 @@
         <v>19</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13386,7 +13373,7 @@
         <v>1937</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
@@ -13396,7 +13383,7 @@
         <v>22</v>
       </c>
       <c r="K154" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13412,7 +13399,7 @@
       </c>
       <c r="D155" s="15"/>
       <c r="K155" s="16" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13420,7 +13407,7 @@
         <v>1950</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
@@ -13430,7 +13417,7 @@
         <v>30</v>
       </c>
       <c r="K156" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13446,7 +13433,7 @@
       </c>
       <c r="D157" s="15"/>
       <c r="K157" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13464,7 +13451,7 @@
         <v>35</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13480,7 +13467,7 @@
       </c>
       <c r="D159" s="15"/>
       <c r="K159" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13496,7 +13483,7 @@
       </c>
       <c r="D160" s="15"/>
       <c r="K160" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13512,7 +13499,7 @@
       </c>
       <c r="D161" s="15"/>
       <c r="K161" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13528,7 +13515,7 @@
       </c>
       <c r="D162" s="15"/>
       <c r="K162" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L162" s="6"/>
     </row>
@@ -13537,7 +13524,7 @@
         <v>2092</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
@@ -13547,7 +13534,7 @@
         <v>30</v>
       </c>
       <c r="K163" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13563,7 +13550,7 @@
       </c>
       <c r="D164" s="15"/>
       <c r="K164" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13571,7 +13558,7 @@
         <v>2117</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
@@ -13581,7 +13568,7 @@
         <v>30</v>
       </c>
       <c r="K165" s="16" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13589,7 +13576,7 @@
         <v>2150</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
@@ -13597,7 +13584,7 @@
       </c>
       <c r="D166" s="15"/>
       <c r="K166" s="16" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13613,7 +13600,7 @@
       </c>
       <c r="D167" s="15"/>
       <c r="K167" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13621,7 +13608,7 @@
         <v>2173</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
@@ -13631,7 +13618,7 @@
         <v>30</v>
       </c>
       <c r="K168" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13647,7 +13634,7 @@
       </c>
       <c r="D169" s="15"/>
       <c r="K169" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13655,7 +13642,7 @@
         <v>2180</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
@@ -13665,7 +13652,7 @@
         <v>22</v>
       </c>
       <c r="K170" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13673,7 +13660,7 @@
         <v>2188</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
@@ -13681,7 +13668,7 @@
       </c>
       <c r="D171" s="1"/>
       <c r="K171" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13689,7 +13676,7 @@
         <v>2191</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
@@ -13699,7 +13686,7 @@
         <v>22</v>
       </c>
       <c r="K172" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13715,7 +13702,7 @@
       </c>
       <c r="D173" s="1"/>
       <c r="K173" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13733,7 +13720,7 @@
         <v>19</v>
       </c>
       <c r="K174" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13749,7 +13736,7 @@
       </c>
       <c r="D175" s="1"/>
       <c r="K175" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -13757,7 +13744,7 @@
         <v>2242</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
@@ -13767,7 +13754,7 @@
         <v>22</v>
       </c>
       <c r="K176" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13775,7 +13762,7 @@
         <v>2245</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
@@ -13785,7 +13772,7 @@
         <v>30</v>
       </c>
       <c r="K177" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13801,7 +13788,7 @@
       </c>
       <c r="D178" s="1"/>
       <c r="K178" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13809,7 +13796,7 @@
         <v>2260</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
@@ -13817,7 +13804,7 @@
       </c>
       <c r="D179" s="1"/>
       <c r="K179" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13835,7 +13822,7 @@
         <v>35</v>
       </c>
       <c r="K180" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13851,7 +13838,7 @@
       </c>
       <c r="D181" s="1"/>
       <c r="K181" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13859,7 +13846,7 @@
         <v>2279</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
@@ -13869,7 +13856,7 @@
         <v>30</v>
       </c>
       <c r="K182" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13877,7 +13864,7 @@
         <v>2281</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
@@ -13885,7 +13872,7 @@
       </c>
       <c r="D183" s="1"/>
       <c r="K183" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13901,7 +13888,7 @@
       </c>
       <c r="D184" s="1"/>
       <c r="K184" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13917,7 +13904,7 @@
         <v>30</v>
       </c>
       <c r="K185" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13933,7 +13920,7 @@
       </c>
       <c r="D186" s="1"/>
       <c r="K186" s="16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13948,10 +13935,10 @@
         <v>13</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K187" s="16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13959,7 +13946,7 @@
         <v>2394</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
@@ -13969,7 +13956,7 @@
         <v>30</v>
       </c>
       <c r="K188" s="16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -13985,7 +13972,7 @@
       </c>
       <c r="D189" s="1"/>
       <c r="K189" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14001,7 +13988,7 @@
       </c>
       <c r="D190" s="6"/>
       <c r="K190" s="16" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14009,7 +13996,7 @@
         <v>2452</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
@@ -14019,7 +14006,7 @@
         <v>30</v>
       </c>
       <c r="K191" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14027,7 +14014,7 @@
         <v>2484</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
@@ -14035,7 +14022,7 @@
       </c>
       <c r="D192" s="1"/>
       <c r="K192" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14043,7 +14030,7 @@
         <v>2490</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
@@ -14053,7 +14040,7 @@
         <v>30</v>
       </c>
       <c r="K193" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14061,7 +14048,7 @@
         <v>2498</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C194">
         <f t="shared" si="2"/>
@@ -14071,7 +14058,7 @@
         <v>22</v>
       </c>
       <c r="K194" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14079,7 +14066,7 @@
         <v>2501</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C195">
         <f t="shared" si="2"/>
@@ -14089,7 +14076,7 @@
         <v>30</v>
       </c>
       <c r="K195" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14097,7 +14084,7 @@
         <v>2524</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C196">
         <f t="shared" si="2"/>
@@ -14107,7 +14094,7 @@
         <v>22</v>
       </c>
       <c r="K196" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14115,7 +14102,7 @@
         <v>2531</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C197">
         <f t="shared" si="2"/>
@@ -14125,7 +14112,7 @@
         <v>30</v>
       </c>
       <c r="K197" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14133,7 +14120,7 @@
         <v>2538</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C198">
         <f t="shared" ref="C198:C212" si="3">A199-A198</f>
@@ -14143,7 +14130,7 @@
         <v>22</v>
       </c>
       <c r="K198" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14151,7 +14138,7 @@
         <v>2540</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
@@ -14159,7 +14146,7 @@
       </c>
       <c r="D199" s="1"/>
       <c r="K199" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14175,7 +14162,7 @@
       </c>
       <c r="D200" s="1"/>
       <c r="K200" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14183,7 +14170,7 @@
         <v>2553</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
@@ -14191,7 +14178,7 @@
       </c>
       <c r="D201" s="1"/>
       <c r="K201" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14207,7 +14194,7 @@
       </c>
       <c r="D202" s="1"/>
       <c r="K202" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14215,7 +14202,7 @@
         <v>2577</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
@@ -14225,7 +14212,7 @@
         <v>30</v>
       </c>
       <c r="K203" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14243,7 +14230,7 @@
         <v>19</v>
       </c>
       <c r="K204" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14261,7 +14248,7 @@
         <v>20</v>
       </c>
       <c r="K205" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14269,7 +14256,7 @@
         <v>2622</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
@@ -14277,7 +14264,7 @@
       </c>
       <c r="D206" s="1"/>
       <c r="K206" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14292,10 +14279,10 @@
         <v>5</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K207" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -14303,7 +14290,7 @@
         <v>2630</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
@@ -14313,7 +14300,7 @@
         <v>30</v>
       </c>
       <c r="K208" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -14321,7 +14308,7 @@
         <v>2633</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
@@ -14329,7 +14316,7 @@
       </c>
       <c r="D209" s="1"/>
       <c r="K209" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -14347,7 +14334,7 @@
         <v>19</v>
       </c>
       <c r="K210" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -14365,7 +14352,7 @@
         <v>35</v>
       </c>
       <c r="K211" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -14373,7 +14360,7 @@
         <v>2660</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
@@ -14383,7 +14370,7 @@
         <v>30</v>
       </c>
       <c r="K212" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -14824,6 +14811,7 @@
       <c r="K281" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U213" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14968,7 +14956,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -14993,7 +14981,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -15013,7 +15001,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -15033,7 +15021,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -15057,7 +15045,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -15080,7 +15068,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -15099,7 +15087,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -15117,7 +15105,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -15135,7 +15123,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -15154,7 +15142,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -15173,7 +15161,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -15192,7 +15180,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15208,7 +15196,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15225,7 +15213,7 @@
       <c r="D18" s="1"/>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -15244,7 +15232,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -15261,7 +15249,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15277,7 +15265,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15294,7 +15282,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15311,7 +15299,7 @@
       <c r="D23" s="1"/>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15329,7 +15317,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -15346,7 +15334,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -15363,7 +15351,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -15380,7 +15368,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -15397,7 +15385,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15415,7 +15403,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15431,7 +15419,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15449,7 +15437,7 @@
         <v>35</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15465,7 +15453,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15481,7 +15469,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15497,7 +15485,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15513,7 +15501,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15529,7 +15517,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15547,7 +15535,7 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15563,7 +15551,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15579,7 +15567,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15595,7 +15583,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15611,7 +15599,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15627,7 +15615,7 @@
       </c>
       <c r="D42" s="6"/>
       <c r="K42" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -15646,7 +15634,7 @@
         <v>35</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15662,7 +15650,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15681,7 +15669,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15697,7 +15685,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -15714,7 +15702,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15730,7 +15718,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15746,7 +15734,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15762,7 +15750,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15778,7 +15766,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15796,7 +15784,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15812,7 +15800,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15828,7 +15816,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15844,7 +15832,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15862,7 +15850,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15878,7 +15866,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15896,7 +15884,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15912,7 +15900,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -15928,7 +15916,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -17349,7 +17337,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -17374,7 +17362,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -17394,7 +17382,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -17414,7 +17402,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -17438,7 +17426,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -17461,7 +17449,7 @@
       <c r="D10" s="1"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -17480,7 +17468,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -17498,7 +17486,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -17516,7 +17504,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -17535,7 +17523,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -17554,7 +17542,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -17573,7 +17561,7 @@
       <c r="D16" s="1"/>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -17591,7 +17579,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -17608,7 +17596,7 @@
       <c r="D18" s="1"/>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -17625,7 +17613,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="K19" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -17644,7 +17632,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -17660,7 +17648,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="K21" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -17677,7 +17665,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -17696,7 +17684,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -17712,7 +17700,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -17729,7 +17717,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -17746,7 +17734,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -17763,7 +17751,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -17780,7 +17768,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -17798,7 +17786,7 @@
         <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -17814,7 +17802,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -17830,7 +17818,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -17846,7 +17834,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -17864,7 +17852,7 @@
         <v>30</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -17880,7 +17868,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -17896,7 +17884,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -17912,7 +17900,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -17928,7 +17916,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -17946,7 +17934,7 @@
         <v>30</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -17964,7 +17952,7 @@
         <v>19</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -17982,7 +17970,7 @@
         <v>30</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -17998,7 +17986,7 @@
       </c>
       <c r="D41" s="6"/>
       <c r="K41" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -18016,7 +18004,7 @@
         <v>35</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -18033,7 +18021,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -18049,7 +18037,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -18066,7 +18054,7 @@
       <c r="D45" s="1"/>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -18082,7 +18070,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -18099,7 +18087,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -18115,7 +18103,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -18131,7 +18119,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -18147,7 +18135,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -18163,7 +18151,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -18181,7 +18169,7 @@
         <v>30</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -18197,7 +18185,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -18215,7 +18203,7 @@
         <v>30</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -18233,7 +18221,7 @@
         <v>22</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -18251,7 +18239,7 @@
         <v>30</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -18267,7 +18255,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -18283,7 +18271,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -18301,7 +18289,7 @@
         <v>21</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -18319,7 +18307,7 @@
         <v>30</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -18335,7 +18323,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -18353,7 +18341,7 @@
         <v>30</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -18370,7 +18358,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -18387,7 +18375,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -18404,7 +18392,7 @@
       <c r="D65" s="1"/>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -18421,7 +18409,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -18437,7 +18425,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -18453,7 +18441,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -18470,7 +18458,7 @@
       <c r="D69" s="1"/>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -18488,7 +18476,7 @@
         <v>30</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -18504,7 +18492,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -18520,7 +18508,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -18536,7 +18524,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -18553,7 +18541,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="K74" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -18569,7 +18557,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -18585,7 +18573,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -18601,7 +18589,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -18618,7 +18606,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -18635,7 +18623,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -18653,7 +18641,7 @@
         <v>22</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18669,7 +18657,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18687,7 +18675,7 @@
         <v>35</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -18703,7 +18691,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -18721,7 +18709,7 @@
         <v>22</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -18737,7 +18725,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -18753,7 +18741,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="K86" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -18771,7 +18759,7 @@
         <v>35</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -18787,7 +18775,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -18805,7 +18793,7 @@
         <v>30</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -18821,7 +18809,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -18837,7 +18825,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -18855,7 +18843,7 @@
         <v>35</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -18871,7 +18859,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -18887,7 +18875,7 @@
       </c>
       <c r="D94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -18903,7 +18891,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19902,7 +19890,7 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -20041,7 +20029,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -20066,7 +20054,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -20088,7 +20076,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -20108,7 +20096,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -20134,7 +20122,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -20157,7 +20145,7 @@
       <c r="D10" s="6"/>
       <c r="F10" s="12"/>
       <c r="K10" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -20178,7 +20166,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -20196,7 +20184,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="K12" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -20216,7 +20204,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -20235,7 +20223,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="K14" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -20254,7 +20242,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="K15" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -20273,7 +20261,7 @@
       <c r="D16" s="6"/>
       <c r="F16" s="12"/>
       <c r="K16" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -20289,7 +20277,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="K17" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -20308,7 +20296,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -20327,7 +20315,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -20346,7 +20334,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -20362,7 +20350,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="K21" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -20379,7 +20367,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="K22" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -20398,7 +20386,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -20414,7 +20402,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="K24" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -20431,7 +20419,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -20447,7 +20435,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -20464,7 +20452,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="K27" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -20481,7 +20469,7 @@
       </c>
       <c r="D28" s="6"/>
       <c r="K28" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -20497,7 +20485,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="K29" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -20513,7 +20501,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="K30" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -20531,7 +20519,7 @@
         <v>30</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -20547,7 +20535,7 @@
       </c>
       <c r="D32" s="6"/>
       <c r="K32" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -20565,7 +20553,7 @@
         <v>30</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -20581,7 +20569,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="K34" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -20599,7 +20587,7 @@
         <v>30</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -20617,7 +20605,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -20635,7 +20623,7 @@
         <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -20653,7 +20641,7 @@
         <v>19</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -20671,7 +20659,7 @@
         <v>30</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -20687,7 +20675,7 @@
       </c>
       <c r="D40" s="6"/>
       <c r="K40" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -20703,7 +20691,7 @@
       </c>
       <c r="D41" s="6"/>
       <c r="K41" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -20719,7 +20707,7 @@
       </c>
       <c r="D42" s="6"/>
       <c r="K42" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -20736,7 +20724,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="K43" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -20752,7 +20740,7 @@
       </c>
       <c r="D44" s="6"/>
       <c r="K44" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -20771,7 +20759,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -20787,7 +20775,7 @@
       </c>
       <c r="D46" s="6"/>
       <c r="K46" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -20804,7 +20792,7 @@
       </c>
       <c r="D47" s="6"/>
       <c r="K47" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -20822,7 +20810,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -20838,7 +20826,7 @@
       </c>
       <c r="D49" s="6"/>
       <c r="K49" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -20856,7 +20844,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -20872,7 +20860,7 @@
       </c>
       <c r="D51" s="6"/>
       <c r="K51" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -20887,10 +20875,10 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -20906,7 +20894,7 @@
       </c>
       <c r="D53" s="6"/>
       <c r="K53" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -20924,7 +20912,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -20940,7 +20928,7 @@
       </c>
       <c r="D55" s="6"/>
       <c r="K55" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -20958,7 +20946,7 @@
         <v>35</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -20974,7 +20962,7 @@
       </c>
       <c r="D57" s="6"/>
       <c r="K57" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -20992,7 +20980,7 @@
         <v>30</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -21008,7 +20996,7 @@
       </c>
       <c r="D59" s="6"/>
       <c r="K59" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -21024,7 +21012,7 @@
       </c>
       <c r="D60" s="6"/>
       <c r="K60" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -21042,7 +21030,7 @@
         <v>30</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -21058,7 +21046,7 @@
       </c>
       <c r="D62" s="6"/>
       <c r="K62" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -21077,7 +21065,7 @@
         <v>30</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -21094,7 +21082,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="K64" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -21111,7 +21099,7 @@
       <c r="D65" s="6"/>
       <c r="F65" s="12"/>
       <c r="K65" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -21128,7 +21116,7 @@
       </c>
       <c r="D66" s="6"/>
       <c r="K66" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -21144,7 +21132,7 @@
       </c>
       <c r="D67" s="6"/>
       <c r="K67" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -21160,7 +21148,7 @@
       </c>
       <c r="D68" s="6"/>
       <c r="K68" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -21179,7 +21167,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -21197,7 +21185,7 @@
         <v>22</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -21215,7 +21203,7 @@
         <v>30</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -21231,7 +21219,7 @@
       </c>
       <c r="D72" s="6"/>
       <c r="K72" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -21247,7 +21235,7 @@
       </c>
       <c r="D73" s="6"/>
       <c r="K73" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -21266,7 +21254,7 @@
         <v>30</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -21282,7 +21270,7 @@
       </c>
       <c r="D75" s="6"/>
       <c r="K75" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -21300,7 +21288,7 @@
         <v>30</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -21316,7 +21304,7 @@
       </c>
       <c r="D77" s="6"/>
       <c r="K77" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -21335,7 +21323,7 @@
         <v>30</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -21354,7 +21342,7 @@
         <v>22</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -21372,7 +21360,7 @@
         <v>30</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -21388,7 +21376,7 @@
       </c>
       <c r="D81" s="6"/>
       <c r="K81" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -21406,7 +21394,7 @@
         <v>30</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -21422,7 +21410,7 @@
       </c>
       <c r="D83" s="6"/>
       <c r="K83" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -21440,7 +21428,7 @@
         <v>22</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -21456,7 +21444,7 @@
       </c>
       <c r="D85" s="6"/>
       <c r="K85" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -21472,7 +21460,7 @@
       </c>
       <c r="D86" s="6"/>
       <c r="K86" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -21488,7 +21476,7 @@
       </c>
       <c r="D87" s="6"/>
       <c r="K87" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -21506,7 +21494,7 @@
         <v>30</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -21522,7 +21510,7 @@
       </c>
       <c r="D89" s="6"/>
       <c r="K89" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -21540,7 +21528,7 @@
         <v>30</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -21558,7 +21546,7 @@
         <v>22</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -21574,7 +21562,7 @@
       </c>
       <c r="D92" s="6"/>
       <c r="K92" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -21592,7 +21580,7 @@
         <v>35</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -21608,7 +21596,7 @@
       </c>
       <c r="D94" s="6"/>
       <c r="K94" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -21624,7 +21612,7 @@
       </c>
       <c r="D95" s="6"/>
       <c r="K95" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -21642,7 +21630,7 @@
         <v>22</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -21658,7 +21646,7 @@
       </c>
       <c r="D97" s="6"/>
       <c r="K97" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -21676,7 +21664,7 @@
         <v>30</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -21692,7 +21680,7 @@
       </c>
       <c r="D99" s="6"/>
       <c r="K99" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -21710,7 +21698,7 @@
         <v>19</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -21728,7 +21716,7 @@
         <v>30</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -21744,7 +21732,7 @@
       </c>
       <c r="D102" s="6"/>
       <c r="K102" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -21760,7 +21748,7 @@
       </c>
       <c r="D103" s="6"/>
       <c r="K103" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -21778,7 +21766,7 @@
         <v>30</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -21794,7 +21782,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="K105" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -21812,7 +21800,7 @@
         <v>30</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -21828,7 +21816,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="K107" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -21844,7 +21832,7 @@
       </c>
       <c r="D108" s="6"/>
       <c r="K108" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -21862,7 +21850,7 @@
         <v>30</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -21879,7 +21867,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="K110" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -21895,7 +21883,7 @@
       </c>
       <c r="D111" s="6"/>
       <c r="K111" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -21913,7 +21901,7 @@
         <v>30</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -21929,7 +21917,7 @@
       </c>
       <c r="D113" s="6"/>
       <c r="K113" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -21947,7 +21935,7 @@
         <v>22</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -21966,7 +21954,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -21984,7 +21972,7 @@
         <v>35</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -22000,7 +21988,7 @@
       </c>
       <c r="D117" s="6"/>
       <c r="K117" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -22019,7 +22007,7 @@
         <v>22</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -22035,7 +22023,7 @@
       </c>
       <c r="D119" s="6"/>
       <c r="K119" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -22053,7 +22041,7 @@
         <v>22</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -22069,7 +22057,7 @@
       </c>
       <c r="D121" s="6"/>
       <c r="K121" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -22087,7 +22075,7 @@
         <v>22</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -22103,7 +22091,7 @@
       </c>
       <c r="D123" s="6"/>
       <c r="K123" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -22119,7 +22107,7 @@
       </c>
       <c r="D124" s="6"/>
       <c r="K124" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -22131,7 +22119,7 @@
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="K125" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
